--- a/biology/Botanique/Cerberiopsis_candelabra/Cerberiopsis_candelabra.xlsx
+++ b/biology/Botanique/Cerberiopsis_candelabra/Cerberiopsis_candelabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerberiopsis candelabra, le candélabre, est une espèce de plantes à fleurs de la famille des Apocynacées. C'est un arbre endémique de Nouvelle-Calédonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le candélabre est un grand arbre pouvant atteindre 20 - 30 m de hauteur avec un tronc de 60 - 80 cm de diamètre, à port pyramidal, aux rameaux épais, ornés de cicatrices foliaires, à extrémité arquée vers le haut -en candélabre-, en pseudoverticilles réguliers le long du tronc. Le houppier est lâche et pointu.
 L'écorce, gris sombre argenté, est très épaisse et crevassée chez les adultes. Elle exsude à l'entaille un latex blanc visqueux abondant qui coagule à l'air.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « candélabre » est présent sur la Grande Terre, surtout dans la partie Sud sur les terrains miniers, à l'état grégaire en abondance, mais il se rencontre de façon éparpillée sur la côte Ouest jusqu'à Poum et sur la côte Est à la base des massifs miniers. Il est aussi présent à l'île des Pins.
 Il croît dans la forêt dense humide de basse et moyenne altitude -0 à 400m-, sur sols plus ou moins profonds d'alluvions ou de colluvions issus de roches ultramafiques et plus rarement sédimentaires.
@@ -580,11 +596,13 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deux variétés ont été recensées pour Cerberiopsis candelabra :
 Cerberiopsis candelabra var candelabra Vieill. ex Pancher &amp; Sebert (qui correspond à la description précédente)
-Cerberiopsis candelabra var vexillaria (Däniker) Boiteau (aux feuilles plus petites et uniquement présente  à l'île Yandé, au Nord-Est de Grande Terre)[1].</t>
+Cerberiopsis candelabra var vexillaria (Däniker) Boiteau (aux feuilles plus petites et uniquement présente  à l'île Yandé, au Nord-Est de Grande Terre).</t>
         </is>
       </c>
     </row>
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La graine broyée sert à enivrer les poissons.
 Le bois, beige-marron satiné, a l'aspect de bois de noyer européen (sans toutefois les nuances rosées) avec de fines nervures sombres.
